--- a/code/params/25_graph_params.xlsx
+++ b/code/params/25_graph_params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580"/>
+    <workbookView xWindow="675" yWindow="510" windowWidth="13065" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>size</t>
   </si>
@@ -33,43 +33,7 @@
     <t>graph_id</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>0.08</t>
   </si>
 </sst>
 </file>
@@ -114,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,11 +416,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,11 +433,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,11 +450,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,11 +467,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,11 +484,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,11 +501,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -544,13 +516,13 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.35</v>
+      </c>
+      <c r="E8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,11 +535,11 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -580,11 +552,11 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -597,11 +569,11 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,11 +586,11 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -631,11 +603,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -646,13 +618,353 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
+      <c r="E18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.35</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0.4</v>
+      </c>
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>0.4</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>0.4</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>0.4</v>
+      </c>
+      <c r="E30">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+      <c r="E31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>0.65</v>
+      </c>
+      <c r="E32">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>0.6</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
